--- a/LinoVative.Web.Api/Resources/ExcelFiles/UpdateItemTemplate.xlsx
+++ b/LinoVative.Web.Api/Resources/ExcelFiles/UpdateItemTemplate.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LINOVATIVE\LinoVativeProject\LinovativeSolution\Linovative.Api\Resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LinoValtiveSolutions\LinoVative.Web.Api\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B6426-E2C0-4F8A-8A57-35DEFA36D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D76F59-71B4-4CDC-B5BB-84A7F88F543D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11085" yWindow="-32520" windowWidth="57840" windowHeight="31920" xr2:uid="{DDEE30A6-2B18-41C6-85EB-1999D5C66F47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DDEE30A6-2B18-41C6-85EB-1999D5C66F47}"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Item Category" sheetId="1" r:id="rId1"/>
+    <sheet name="Update Item" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Item Category Name</t>
-  </si>
-  <si>
-    <t>Item Group Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Item Code</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Sell Price</t>
   </si>
 </sst>
 </file>
@@ -88,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,24 +438,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56733355-42C7-4069-9CC5-8A34B990EF30}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LinoVative.Web.Api/Resources/ExcelFiles/UpdateItemTemplate.xlsx
+++ b/LinoVative.Web.Api/Resources/ExcelFiles/UpdateItemTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LinoValtiveSolutions\LinoVative.Web.Api\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D76F59-71B4-4CDC-B5BB-84A7F88F543D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34B666C-07ED-4534-8825-8682B4A8A52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DDEE30A6-2B18-41C6-85EB-1999D5C66F47}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Item Code</t>
   </si>
@@ -52,13 +52,19 @@
   </si>
   <si>
     <t>Sell Price</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +73,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Aptos Narrow"/>
@@ -97,15 +119,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,37 +468,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56733355-42C7-4069-9CC5-8A34B990EF30}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/LinoVative.Web.Api/Resources/ExcelFiles/UpdateItemTemplate.xlsx
+++ b/LinoVative.Web.Api/Resources/ExcelFiles/UpdateItemTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LinoValtiveSolutions\LinoVative.Web.Api\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34B666C-07ED-4534-8825-8682B4A8A52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFD881C-824A-4F7A-ACD7-ABBD0B30155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DDEE30A6-2B18-41C6-85EB-1999D5C66F47}"/>
   </bookViews>
@@ -31,32 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Item Code</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Sell Price</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -105,7 +79,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,31 +454,20 @@
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="G1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
